--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,12 +68,6 @@
       <color rgb="FF000000"/>
       <sz val="8"/>
     </font>
-    <font>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -101,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -134,17 +128,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -313,19 +296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -346,40 +316,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -392,9 +338,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -403,23 +360,40 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -445,31 +419,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -487,104 +458,88 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +905,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -968,22 +923,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="40" t="inlineStr">
         <is>
           <t>TORMENTA</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="41" t="inlineStr">
         <is>
           <t>FACTURA</t>
         </is>
       </c>
-      <c r="E1" s="52" t="n"/>
-      <c r="F1" s="53" t="n"/>
+      <c r="E1" s="48" t="n"/>
+      <c r="F1" s="49" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="34" t="n"/>
-      <c r="D2" s="34" t="n"/>
+      <c r="A2" s="43" t="n"/>
+      <c r="D2" s="43" t="n"/>
       <c r="E2" s="11" t="inlineStr">
         <is>
           <t>Fecha:</t>
@@ -991,15 +946,15 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="48" t="n"/>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="34" t="n"/>
-      <c r="D3" s="34" t="n"/>
+      <c r="A3" s="8" t="n"/>
+      <c r="B3" s="43" t="n"/>
+      <c r="C3" s="43" t="n"/>
+      <c r="D3" s="43" t="n"/>
       <c r="E3" s="13" t="inlineStr">
         <is>
           <t>Nº de Factura</t>
@@ -1007,19 +962,19 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000043</t>
+          <t>F100-00000068</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Balta #152</t>
         </is>
       </c>
-      <c r="B4" s="34" t="n"/>
-      <c r="C4" s="34" t="n"/>
-      <c r="D4" s="34" t="n"/>
+      <c r="B4" s="43" t="n"/>
+      <c r="C4" s="43" t="n"/>
+      <c r="D4" s="43" t="n"/>
       <c r="E4" s="15" t="inlineStr">
         <is>
           <t>RUC de cliente</t>
@@ -1032,31 +987,31 @@
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="34" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Lambayeque, Chiclayo, 14001</t>
         </is>
       </c>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="34" t="n"/>
-      <c r="D5" s="34" t="n"/>
+      <c r="B5" s="43" t="n"/>
+      <c r="C5" s="43" t="n"/>
+      <c r="D5" s="43" t="n"/>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="5" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="34" t="inlineStr">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>Teléfono: 987 654 321</t>
         </is>
       </c>
-      <c r="B6" s="34" t="n"/>
-      <c r="C6" s="34" t="n"/>
-      <c r="D6" s="34" t="n"/>
+      <c r="B6" s="43" t="n"/>
+      <c r="C6" s="43" t="n"/>
+      <c r="D6" s="43" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="5" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="48" t="n"/>
+      <c r="A7" s="8" t="n"/>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -1079,232 +1034,392 @@
       <c r="F9" s="5" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="34" t="inlineStr"/>
+      <c r="A10" s="43" t="inlineStr"/>
       <c r="F10" s="5" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="48" t="n"/>
+      <c r="A11" s="8" t="n"/>
       <c r="F11" s="5" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="35" t="inlineStr">
+      <c r="A12" s="46" t="inlineStr">
         <is>
           <t>DESCRIPCION</t>
         </is>
       </c>
-      <c r="B12" s="54" t="n"/>
-      <c r="C12" s="54" t="n"/>
-      <c r="D12" s="54" t="n"/>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="29" t="inlineStr">
+      <c r="B12" s="50" t="n"/>
+      <c r="C12" s="50" t="n"/>
+      <c r="D12" s="50" t="n"/>
+      <c r="E12" s="50" t="n"/>
+      <c r="F12" s="47" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="56" t="inlineStr">
-        <is>
-          <t>PANTALON 01 - 1 - 68</t>
-        </is>
-      </c>
-      <c r="B13" s="54" t="n"/>
-      <c r="C13" s="54" t="n"/>
-      <c r="D13" s="54" t="n"/>
-      <c r="E13" s="57" t="n"/>
-      <c r="F13" s="17" t="n">
-        <v>68</v>
+      <c r="A13" s="51" t="inlineStr">
+        <is>
+          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
+        </is>
+      </c>
+      <c r="F13" s="51" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="58" t="inlineStr">
-        <is>
-          <t>PANTALON 02 - 1 - 78</t>
-        </is>
-      </c>
-      <c r="E14" s="59" t="n"/>
-      <c r="F14" s="18" t="n">
-        <v>78</v>
-      </c>
+      <c r="A14" s="52" t="inlineStr"/>
+      <c r="E14" s="53" t="n"/>
+      <c r="F14" s="17" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="58" t="n"/>
-      <c r="E15" s="59" t="n"/>
-      <c r="F15" s="18" t="n"/>
+      <c r="A15" s="54" t="n"/>
+      <c r="E15" s="53" t="n"/>
+      <c r="F15" s="17" t="n"/>
     </row>
     <row r="16" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A16" s="58" t="n"/>
-      <c r="E16" s="59" t="n"/>
-      <c r="F16" s="18" t="n"/>
+      <c r="A16" s="54" t="n"/>
+      <c r="E16" s="53" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A17" s="60" t="n"/>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="62" t="n"/>
-      <c r="F17" s="19" t="n"/>
+      <c r="A17" s="54" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="51" t="n"/>
-      <c r="B18" s="63" t="n"/>
-      <c r="C18" s="63" t="n"/>
-      <c r="D18" s="22" t="inlineStr">
+      <c r="A18" s="55" t="n"/>
+      <c r="B18" s="56" t="n"/>
+      <c r="C18" s="56" t="n"/>
+      <c r="D18" s="56" t="n"/>
+      <c r="E18" s="57" t="n"/>
+      <c r="F18" s="18" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="39" t="n"/>
+      <c r="B19" s="58" t="n"/>
+      <c r="C19" s="58" t="n"/>
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>[42]</t>
         </is>
       </c>
-      <c r="E18" s="20" t="inlineStr">
+      <c r="E19" s="19" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="46" t="inlineStr">
+      <c r="F19" s="4" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="38" t="inlineStr">
         <is>
           <t>COMENTARIOS</t>
         </is>
       </c>
-      <c r="B19" s="63" t="n"/>
-      <c r="C19" s="64" t="n"/>
-      <c r="D19" s="34" t="n"/>
-      <c r="E19" s="20" t="inlineStr">
+      <c r="B20" s="58" t="n"/>
+      <c r="C20" s="59" t="n"/>
+      <c r="D20" s="43" t="n"/>
+      <c r="E20" s="19" t="inlineStr">
         <is>
           <t>TASA DE IMPUESTO</t>
         </is>
       </c>
-      <c r="F19" s="21" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="50" t="inlineStr">
+      <c r="F20" s="20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A21" s="30" t="inlineStr">
         <is>
           <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
-      <c r="B20" s="63" t="n"/>
-      <c r="C20" s="64" t="n"/>
-      <c r="D20" s="34" t="n"/>
-      <c r="E20" s="20" t="inlineStr">
+      <c r="B21" s="58" t="n"/>
+      <c r="C21" s="59" t="n"/>
+      <c r="D21" s="43" t="n"/>
+      <c r="E21" s="19" t="inlineStr">
         <is>
           <t>IMPUESTO</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="50" t="inlineStr">
+      <c r="F21" s="4" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="30" t="inlineStr">
         <is>
           <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
-      <c r="B21" s="63" t="n"/>
-      <c r="C21" s="64" t="n"/>
-      <c r="D21" s="34" t="n"/>
-      <c r="E21" s="25" t="inlineStr">
+      <c r="B22" s="58" t="n"/>
+      <c r="C22" s="59" t="n"/>
+      <c r="D22" s="43" t="n"/>
+      <c r="E22" s="24" t="inlineStr">
         <is>
           <t>OTRO</t>
         </is>
       </c>
-      <c r="F21" s="26" t="n">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="50" t="n"/>
-      <c r="B22" s="63" t="n"/>
-      <c r="C22" s="64" t="n"/>
-      <c r="D22" s="34" t="n"/>
-      <c r="E22" s="23" t="inlineStr">
+      <c r="F22" s="25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="43" t="n"/>
+      <c r="E23" s="22" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F22" s="24" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="50" t="n"/>
-      <c r="B23" s="63" t="n"/>
-      <c r="C23" s="64" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="5" t="n">
-        <v>172.28</v>
+      <c r="F23" s="23" t="n">
+        <v>81.42</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="48" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1"/>
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="27" t="n"/>
+      <c r="B25" s="27" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
+    </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="48" t="inlineStr">
-        <is>
-          <t>Si usted tiene preguntas sobre esta factura, póngase en contacto con</t>
-        </is>
-      </c>
+      <c r="A26" s="27" t="n"/>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="48" t="inlineStr">
-        <is>
-          <t>[Nombre, Teléfono, E-mail]</t>
-        </is>
-      </c>
+      <c r="A27" s="27" t="n"/>
+      <c r="B27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="28" t="n"/>
+      <c r="E27" s="28" t="n"/>
+      <c r="F27" s="29" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="48" t="n"/>
-      <c r="B28" s="34" t="n"/>
-      <c r="C28" s="34" t="n"/>
-      <c r="D28" s="34" t="n"/>
-      <c r="E28" s="34" t="n"/>
-      <c r="F28" s="5" t="n"/>
+      <c r="A28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="49" t="inlineStr">
-        <is>
-          <t>¡Gracias por su negocio!</t>
-        </is>
-      </c>
+      <c r="A29" s="27" t="n"/>
+      <c r="B29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
-      <c r="F30" s="28" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="28" t="n"/>
+      <c r="E30" s="28" t="n"/>
+      <c r="F30" s="29" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
       <c r="D31" s="6" t="n"/>
       <c r="E31" s="6" t="n"/>
-      <c r="F31" s="28" t="n"/>
+      <c r="F31" s="26" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="26" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="27" t="n"/>
+      <c r="C35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="27" t="n"/>
+      <c r="B53" s="27" t="n"/>
+      <c r="C53" s="27" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="27" t="n"/>
+      <c r="B54" s="27" t="n"/>
+      <c r="C54" s="27" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="27" t="n"/>
+      <c r="B55" s="27" t="n"/>
+      <c r="C55" s="27" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="27" t="n"/>
+      <c r="B56" s="27" t="n"/>
+      <c r="C56" s="27" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="27" t="n"/>
+      <c r="B57" s="27" t="n"/>
+      <c r="C57" s="27" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="27" t="n"/>
+      <c r="B58" s="27" t="n"/>
+      <c r="C58" s="27" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="27" t="n"/>
+      <c r="B59" s="27" t="n"/>
+      <c r="C59" s="27" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="27" t="n"/>
+      <c r="B62" s="27" t="n"/>
+      <c r="C62" s="27" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="13">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -905,7 +905,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000068</t>
+          <t>F100-00000071</t>
         </is>
       </c>
     </row>
@@ -1060,20 +1060,25 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
+          <t>PANTALON 02 - cantidad: 1 - precio un.: S/. 78</t>
         </is>
       </c>
       <c r="F13" s="51" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="52" t="inlineStr"/>
-      <c r="E14" s="53" t="n"/>
-      <c r="F14" s="17" t="n"/>
+      <c r="A14" s="51" t="inlineStr">
+        <is>
+          <t>PANTALON 03 - cantidad: 1 - precio un.: S/. 56</t>
+        </is>
+      </c>
+      <c r="F14" s="51" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="54" t="n"/>
+      <c r="A15" s="52" t="inlineStr"/>
       <c r="E15" s="53" t="n"/>
       <c r="F15" s="17" t="n"/>
     </row>
@@ -1088,53 +1093,40 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="55" t="n"/>
-      <c r="B18" s="56" t="n"/>
-      <c r="C18" s="56" t="n"/>
-      <c r="D18" s="56" t="n"/>
-      <c r="E18" s="57" t="n"/>
-      <c r="F18" s="18" t="n"/>
+      <c r="A18" s="54" t="n"/>
+      <c r="E18" s="53" t="n"/>
+      <c r="F18" s="17" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="39" t="n"/>
-      <c r="B19" s="58" t="n"/>
-      <c r="C19" s="58" t="n"/>
-      <c r="D19" s="21" t="inlineStr">
+      <c r="A19" s="55" t="n"/>
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="56" t="n"/>
+      <c r="D19" s="56" t="n"/>
+      <c r="E19" s="57" t="n"/>
+      <c r="F19" s="18" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="39" t="n"/>
+      <c r="B20" s="58" t="n"/>
+      <c r="C20" s="58" t="n"/>
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>[42]</t>
         </is>
       </c>
-      <c r="E19" s="19" t="inlineStr">
+      <c r="E20" s="19" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="38" t="inlineStr">
+      <c r="F20" s="4" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A21" s="38" t="inlineStr">
         <is>
           <t>COMENTARIOS</t>
-        </is>
-      </c>
-      <c r="B20" s="58" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="43" t="n"/>
-      <c r="E20" s="19" t="inlineStr">
-        <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="30" t="inlineStr">
-        <is>
-          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B21" s="58" t="n"/>
@@ -1142,62 +1134,72 @@
       <c r="D21" s="43" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>12.42</v>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="30" t="inlineStr">
         <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
+          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B22" s="58" t="n"/>
       <c r="C22" s="59" t="n"/>
       <c r="D22" s="43" t="n"/>
-      <c r="E22" s="24" t="inlineStr">
+      <c r="E22" s="19" t="inlineStr">
+        <is>
+          <t>IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="30" t="inlineStr">
+        <is>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
+        </is>
+      </c>
+      <c r="B23" s="58" t="n"/>
+      <c r="C23" s="59" t="n"/>
+      <c r="D23" s="43" t="n"/>
+      <c r="E23" s="24" t="inlineStr">
         <is>
           <t>OTRO</t>
         </is>
       </c>
-      <c r="F22" s="25" t="inlineStr">
+      <c r="F23" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="27" t="n"/>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="43" t="n"/>
-      <c r="E23" s="22" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F23" s="23" t="n">
-        <v>81.42</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="27" t="n"/>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="5" t="n"/>
+      <c r="D24" s="43" t="n"/>
+      <c r="E24" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>158.12</v>
+      </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="27" t="n"/>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n"/>
-      <c r="D25" s="27" t="n"/>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="5" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="27" t="n"/>
@@ -1211,41 +1213,41 @@
       <c r="A27" s="27" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="27" t="n"/>
-      <c r="D27" s="28" t="n"/>
-      <c r="E27" s="28" t="n"/>
-      <c r="F27" s="29" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="27" t="n"/>
       <c r="B28" s="27" t="n"/>
       <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
+      <c r="D28" s="28" t="n"/>
+      <c r="E28" s="28" t="n"/>
+      <c r="F28" s="29" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="27" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
-      <c r="D29" s="43" t="n"/>
-      <c r="E29" s="43" t="n"/>
-      <c r="F29" s="5" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
-      <c r="D30" s="28" t="n"/>
-      <c r="E30" s="28" t="n"/>
-      <c r="F30" s="29" t="n"/>
+      <c r="D30" s="43" t="n"/>
+      <c r="E30" s="43" t="n"/>
+      <c r="F30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
-      <c r="F31" s="26" t="n"/>
+      <c r="D31" s="28" t="n"/>
+      <c r="E31" s="28" t="n"/>
+      <c r="F31" s="29" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="27" t="n"/>
@@ -1259,6 +1261,9 @@
       <c r="A33" s="27" t="n"/>
       <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="27" t="n"/>
@@ -1404,6 +1409,11 @@
       <c r="A62" s="27" t="n"/>
       <c r="B62" s="27" t="n"/>
       <c r="C62" s="27" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="27" t="n"/>
+      <c r="B63" s="27" t="n"/>
+      <c r="C63" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -905,7 +905,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000071</t>
+          <t>F100-00000087</t>
         </is>
       </c>
     </row>
@@ -1060,25 +1060,20 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 02 - cantidad: 1 - precio un.: S/. 78</t>
+          <t>PANTALON 04 - cantidad: 1 - precio un.: S/. 47</t>
         </is>
       </c>
       <c r="F13" s="51" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="51" t="inlineStr">
-        <is>
-          <t>PANTALON 03 - cantidad: 1 - precio un.: S/. 56</t>
-        </is>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>56</v>
-      </c>
+      <c r="A14" s="52" t="inlineStr"/>
+      <c r="E14" s="53" t="n"/>
+      <c r="F14" s="17" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="52" t="inlineStr"/>
+      <c r="A15" s="54" t="n"/>
       <c r="E15" s="53" t="n"/>
       <c r="F15" s="17" t="n"/>
     </row>
@@ -1093,40 +1088,53 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="54" t="n"/>
-      <c r="E18" s="53" t="n"/>
-      <c r="F18" s="17" t="n"/>
+      <c r="A18" s="55" t="n"/>
+      <c r="B18" s="56" t="n"/>
+      <c r="C18" s="56" t="n"/>
+      <c r="D18" s="56" t="n"/>
+      <c r="E18" s="57" t="n"/>
+      <c r="F18" s="18" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="55" t="n"/>
-      <c r="B19" s="56" t="n"/>
-      <c r="C19" s="56" t="n"/>
-      <c r="D19" s="56" t="n"/>
-      <c r="E19" s="57" t="n"/>
-      <c r="F19" s="18" t="n"/>
+      <c r="A19" s="39" t="n"/>
+      <c r="B19" s="58" t="n"/>
+      <c r="C19" s="58" t="n"/>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="E19" s="19" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="39" t="n"/>
+      <c r="A20" s="38" t="inlineStr">
+        <is>
+          <t>COMENTARIOS</t>
+        </is>
+      </c>
       <c r="B20" s="58" t="n"/>
-      <c r="C20" s="58" t="n"/>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
+      <c r="C20" s="59" t="n"/>
+      <c r="D20" s="43" t="n"/>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>134</v>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="38" t="inlineStr">
-        <is>
-          <t>COMENTARIOS</t>
+      <c r="A21" s="30" t="inlineStr">
+        <is>
+          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B21" s="58" t="n"/>
@@ -1134,72 +1142,62 @@
       <c r="D21" s="43" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F21" s="20" t="n">
-        <v>18</v>
+          <t>IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="30" t="inlineStr">
         <is>
-          <t>1. Total a pagar en 30 días</t>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
       <c r="B22" s="58" t="n"/>
       <c r="C22" s="59" t="n"/>
       <c r="D22" s="43" t="n"/>
-      <c r="E22" s="19" t="inlineStr">
-        <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>24.12</v>
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>OTRO</t>
+        </is>
+      </c>
+      <c r="F22" s="25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="30" t="inlineStr">
-        <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
-        </is>
-      </c>
-      <c r="B23" s="58" t="n"/>
-      <c r="C23" s="59" t="n"/>
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="43" t="n"/>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>OTRO</t>
-        </is>
-      </c>
-      <c r="F23" s="25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E23" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>55.46</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="27" t="n"/>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n"/>
-      <c r="D24" s="43" t="n"/>
-      <c r="E24" s="22" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F24" s="23" t="n">
-        <v>158.12</v>
-      </c>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="27" t="n"/>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="5" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="27" t="n"/>
@@ -1213,41 +1211,41 @@
       <c r="A27" s="27" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="27" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
+      <c r="D27" s="28" t="n"/>
+      <c r="E27" s="28" t="n"/>
+      <c r="F27" s="29" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="27" t="n"/>
       <c r="B28" s="27" t="n"/>
       <c r="C28" s="27" t="n"/>
-      <c r="D28" s="28" t="n"/>
-      <c r="E28" s="28" t="n"/>
-      <c r="F28" s="29" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="27" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
-      <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
-      <c r="D30" s="43" t="n"/>
-      <c r="E30" s="43" t="n"/>
-      <c r="F30" s="5" t="n"/>
+      <c r="D30" s="28" t="n"/>
+      <c r="E30" s="28" t="n"/>
+      <c r="F30" s="29" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
-      <c r="D31" s="28" t="n"/>
-      <c r="E31" s="28" t="n"/>
-      <c r="F31" s="29" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="26" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="27" t="n"/>
@@ -1261,9 +1259,6 @@
       <c r="A33" s="27" t="n"/>
       <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
-      <c r="D33" s="6" t="n"/>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="27" t="n"/>
@@ -1409,11 +1404,6 @@
       <c r="A62" s="27" t="n"/>
       <c r="B62" s="27" t="n"/>
       <c r="C62" s="27" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="27" t="n"/>
-      <c r="B63" s="27" t="n"/>
-      <c r="C63" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -905,7 +905,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-11-05</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000087</t>
+          <t>F100-00000013</t>
         </is>
       </c>
     </row>
@@ -1060,25 +1060,35 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
+          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
+        </is>
+      </c>
+      <c r="F13" s="51" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="51" t="inlineStr">
+        <is>
+          <t>PANTALON 05 - cantidad: 1 - precio un.: S/. 57</t>
+        </is>
+      </c>
+      <c r="F14" s="51" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="51" t="inlineStr">
+        <is>
           <t>PANTALON 04 - cantidad: 1 - precio un.: S/. 47</t>
         </is>
       </c>
-      <c r="F13" s="51" t="n">
+      <c r="F15" s="51" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="52" t="inlineStr"/>
-      <c r="E14" s="53" t="n"/>
-      <c r="F14" s="17" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="54" t="n"/>
-      <c r="E15" s="53" t="n"/>
-      <c r="F15" s="17" t="n"/>
-    </row>
     <row r="16" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A16" s="54" t="n"/>
+      <c r="A16" s="52" t="inlineStr"/>
       <c r="E16" s="53" t="n"/>
       <c r="F16" s="17" t="n"/>
     </row>
@@ -1088,132 +1098,126 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="55" t="n"/>
-      <c r="B18" s="56" t="n"/>
-      <c r="C18" s="56" t="n"/>
-      <c r="D18" s="56" t="n"/>
-      <c r="E18" s="57" t="n"/>
-      <c r="F18" s="18" t="n"/>
+      <c r="A18" s="54" t="n"/>
+      <c r="E18" s="53" t="n"/>
+      <c r="F18" s="17" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="39" t="n"/>
-      <c r="B19" s="58" t="n"/>
-      <c r="C19" s="58" t="n"/>
-      <c r="D19" s="21" t="inlineStr">
+      <c r="A19" s="54" t="n"/>
+      <c r="E19" s="53" t="n"/>
+      <c r="F19" s="17" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="55" t="n"/>
+      <c r="B20" s="56" t="n"/>
+      <c r="C20" s="56" t="n"/>
+      <c r="D20" s="56" t="n"/>
+      <c r="E20" s="57" t="n"/>
+      <c r="F20" s="18" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A21" s="39" t="n"/>
+      <c r="B21" s="58" t="n"/>
+      <c r="C21" s="58" t="n"/>
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>[42]</t>
         </is>
       </c>
-      <c r="E19" s="19" t="inlineStr">
+      <c r="E21" s="19" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="38" t="inlineStr">
+      <c r="F21" s="4" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="38" t="inlineStr">
         <is>
           <t>COMENTARIOS</t>
-        </is>
-      </c>
-      <c r="B20" s="58" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="43" t="n"/>
-      <c r="E20" s="19" t="inlineStr">
-        <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="30" t="inlineStr">
-        <is>
-          <t>1. Total a pagar en 30 días</t>
-        </is>
-      </c>
-      <c r="B21" s="58" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="43" t="n"/>
-      <c r="E21" s="19" t="inlineStr">
-        <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="30" t="inlineStr">
-        <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
       <c r="B22" s="58" t="n"/>
       <c r="C22" s="59" t="n"/>
       <c r="D22" s="43" t="n"/>
-      <c r="E22" s="24" t="inlineStr">
+      <c r="E22" s="19" t="inlineStr">
+        <is>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F22" s="20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="30" t="inlineStr">
+        <is>
+          <t>1. Total a pagar en 30 días</t>
+        </is>
+      </c>
+      <c r="B23" s="58" t="n"/>
+      <c r="C23" s="59" t="n"/>
+      <c r="D23" s="43" t="n"/>
+      <c r="E23" s="19" t="inlineStr">
+        <is>
+          <t>IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="30" t="inlineStr">
+        <is>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
+        </is>
+      </c>
+      <c r="B24" s="58" t="n"/>
+      <c r="C24" s="59" t="n"/>
+      <c r="D24" s="43" t="n"/>
+      <c r="E24" s="24" t="inlineStr">
         <is>
           <t>OTRO</t>
         </is>
       </c>
-      <c r="F22" s="25" t="inlineStr">
+      <c r="F24" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="27" t="n"/>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="43" t="n"/>
-      <c r="E23" s="22" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F23" s="23" t="n">
-        <v>55.46</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="27" t="n"/>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="27" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="27" t="n"/>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n"/>
-      <c r="D25" s="27" t="n"/>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
+      <c r="D25" s="43" t="n"/>
+      <c r="E25" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F25" s="23" t="n">
+        <v>204.14</v>
+      </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="27" t="n"/>
       <c r="B26" s="27" t="n"/>
       <c r="C26" s="27" t="n"/>
-      <c r="D26" s="27" t="n"/>
-      <c r="E26" s="27" t="n"/>
-      <c r="F26" s="27" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="5" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="27" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="27" t="n"/>
-      <c r="D27" s="28" t="n"/>
-      <c r="E27" s="28" t="n"/>
-      <c r="F27" s="29" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="27" t="n"/>
@@ -1227,43 +1231,49 @@
       <c r="A29" s="27" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
-      <c r="D29" s="43" t="n"/>
-      <c r="E29" s="43" t="n"/>
-      <c r="F29" s="5" t="n"/>
+      <c r="D29" s="28" t="n"/>
+      <c r="E29" s="28" t="n"/>
+      <c r="F29" s="29" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
-      <c r="D30" s="28" t="n"/>
-      <c r="E30" s="28" t="n"/>
-      <c r="F30" s="29" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
-      <c r="F31" s="26" t="n"/>
+      <c r="D31" s="43" t="n"/>
+      <c r="E31" s="43" t="n"/>
+      <c r="F31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="27" t="n"/>
       <c r="B32" s="27" t="n"/>
       <c r="C32" s="27" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
-      <c r="F32" s="26" t="n"/>
+      <c r="D32" s="28" t="n"/>
+      <c r="E32" s="28" t="n"/>
+      <c r="F32" s="29" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="27" t="n"/>
       <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="27" t="n"/>
       <c r="B34" s="27" t="n"/>
       <c r="C34" s="27" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="26" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="27" t="n"/>
@@ -1404,6 +1414,16 @@
       <c r="A62" s="27" t="n"/>
       <c r="B62" s="27" t="n"/>
       <c r="C62" s="27" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="27" t="n"/>
+      <c r="B63" s="27" t="n"/>
+      <c r="C63" s="27" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="27" t="n"/>
+      <c r="B64" s="27" t="n"/>
+      <c r="C64" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -905,7 +905,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000013</t>
+          <t>B100-00000015</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>73747576</t>
+          <t>76070007</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>Ruben Meladoblas</t>
+          <t>LEYDI VANESSA IDROGO TANTAJULCA</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1060,35 +1060,25 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
+          <t>Pantalones de lino con ajuste relajado - cantidad: 11 - precio un.: S/. 50</t>
         </is>
       </c>
       <c r="F13" s="51" t="n">
-        <v>69</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="51" t="inlineStr">
-        <is>
-          <t>PANTALON 05 - cantidad: 1 - precio un.: S/. 57</t>
-        </is>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>57</v>
-      </c>
+      <c r="A14" s="52" t="inlineStr"/>
+      <c r="E14" s="53" t="n"/>
+      <c r="F14" s="17" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="51" t="inlineStr">
-        <is>
-          <t>PANTALON 04 - cantidad: 1 - precio un.: S/. 47</t>
-        </is>
-      </c>
-      <c r="F15" s="51" t="n">
-        <v>47</v>
-      </c>
+      <c r="A15" s="54" t="n"/>
+      <c r="E15" s="53" t="n"/>
+      <c r="F15" s="17" t="n"/>
     </row>
     <row r="16" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A16" s="52" t="inlineStr"/>
+      <c r="A16" s="54" t="n"/>
       <c r="E16" s="53" t="n"/>
       <c r="F16" s="17" t="n"/>
     </row>
@@ -1098,126 +1088,132 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="54" t="n"/>
-      <c r="E18" s="53" t="n"/>
-      <c r="F18" s="17" t="n"/>
+      <c r="A18" s="55" t="n"/>
+      <c r="B18" s="56" t="n"/>
+      <c r="C18" s="56" t="n"/>
+      <c r="D18" s="56" t="n"/>
+      <c r="E18" s="57" t="n"/>
+      <c r="F18" s="18" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="54" t="n"/>
-      <c r="E19" s="53" t="n"/>
-      <c r="F19" s="17" t="n"/>
+      <c r="A19" s="39" t="n"/>
+      <c r="B19" s="58" t="n"/>
+      <c r="C19" s="58" t="n"/>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="E19" s="19" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>550</v>
+      </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="55" t="n"/>
-      <c r="B20" s="56" t="n"/>
-      <c r="C20" s="56" t="n"/>
-      <c r="D20" s="56" t="n"/>
-      <c r="E20" s="57" t="n"/>
-      <c r="F20" s="18" t="n"/>
+      <c r="A20" s="38" t="inlineStr">
+        <is>
+          <t>COMENTARIOS</t>
+        </is>
+      </c>
+      <c r="B20" s="58" t="n"/>
+      <c r="C20" s="59" t="n"/>
+      <c r="D20" s="43" t="n"/>
+      <c r="E20" s="19" t="inlineStr">
+        <is>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="39" t="n"/>
+      <c r="A21" s="30" t="inlineStr">
+        <is>
+          <t>1. Total a pagar en 30 días</t>
+        </is>
+      </c>
       <c r="B21" s="58" t="n"/>
-      <c r="C21" s="58" t="n"/>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
+      <c r="C21" s="59" t="n"/>
+      <c r="D21" s="43" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>SUBTOTAL</t>
+          <t>IMPUESTO</t>
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="38" t="inlineStr">
-        <is>
-          <t>COMENTARIOS</t>
+      <c r="A22" s="30" t="inlineStr">
+        <is>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
       <c r="B22" s="58" t="n"/>
       <c r="C22" s="59" t="n"/>
       <c r="D22" s="43" t="n"/>
-      <c r="E22" s="19" t="inlineStr">
-        <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F22" s="20" t="n">
-        <v>18</v>
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>OTRO</t>
+        </is>
+      </c>
+      <c r="F22" s="25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="30" t="inlineStr">
-        <is>
-          <t>1. Total a pagar en 30 días</t>
-        </is>
-      </c>
-      <c r="B23" s="58" t="n"/>
-      <c r="C23" s="59" t="n"/>
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="43" t="n"/>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>31.14</v>
+      <c r="E23" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="30" t="inlineStr">
-        <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
-        </is>
-      </c>
-      <c r="B24" s="58" t="n"/>
-      <c r="C24" s="59" t="n"/>
-      <c r="D24" s="43" t="n"/>
-      <c r="E24" s="24" t="inlineStr">
-        <is>
-          <t>OTRO</t>
-        </is>
-      </c>
-      <c r="F24" s="25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="27" t="n"/>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n"/>
-      <c r="D25" s="43" t="n"/>
-      <c r="E25" s="22" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F25" s="23" t="n">
-        <v>204.14</v>
-      </c>
+      <c r="D25" s="27" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="27" t="n"/>
       <c r="B26" s="27" t="n"/>
       <c r="C26" s="27" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="5" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="27" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="27" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
+      <c r="D27" s="28" t="n"/>
+      <c r="E27" s="28" t="n"/>
+      <c r="F27" s="29" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="27" t="n"/>
@@ -1231,49 +1227,43 @@
       <c r="A29" s="27" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
-      <c r="D29" s="28" t="n"/>
-      <c r="E29" s="28" t="n"/>
-      <c r="F29" s="29" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
-      <c r="D30" s="27" t="n"/>
-      <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
+      <c r="D30" s="28" t="n"/>
+      <c r="E30" s="28" t="n"/>
+      <c r="F30" s="29" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
-      <c r="D31" s="43" t="n"/>
-      <c r="E31" s="43" t="n"/>
-      <c r="F31" s="5" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="26" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="27" t="n"/>
       <c r="B32" s="27" t="n"/>
       <c r="C32" s="27" t="n"/>
-      <c r="D32" s="28" t="n"/>
-      <c r="E32" s="28" t="n"/>
-      <c r="F32" s="29" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="26" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="27" t="n"/>
       <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
-      <c r="D33" s="6" t="n"/>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="27" t="n"/>
       <c r="B34" s="27" t="n"/>
       <c r="C34" s="27" t="n"/>
-      <c r="D34" s="6" t="n"/>
-      <c r="E34" s="6" t="n"/>
-      <c r="F34" s="26" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="27" t="n"/>
@@ -1414,16 +1404,6 @@
       <c r="A62" s="27" t="n"/>
       <c r="B62" s="27" t="n"/>
       <c r="C62" s="27" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="27" t="n"/>
-      <c r="B63" s="27" t="n"/>
-      <c r="C63" s="27" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="27" t="n"/>
-      <c r="B64" s="27" t="n"/>
-      <c r="C64" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -946,7 +946,7 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-13</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>B100-00000015</t>
+          <t>F100-00000018</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>76070007</t>
+          <t>10524578961</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>LEYDI VANESSA IDROGO TANTAJULCA</t>
+          <t>Empresa VALDOS I.R.L</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1060,11 +1060,11 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>Pantalones de lino con ajuste relajado - cantidad: 11 - precio un.: S/. 50</t>
+          <t>PANTALON 06 - cantidad: 2 - precio un.: S/. 69</t>
         </is>
       </c>
       <c r="F13" s="51" t="n">
-        <v>550</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>550</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>99</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="F23" s="23" t="n">
-        <v>649</v>
+        <v>162.84</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -905,7 +905,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000018</t>
+          <t>F100-00000013</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,17 @@
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="52" t="inlineStr"/>
-      <c r="E14" s="53" t="n"/>
-      <c r="F14" s="17" t="n"/>
+      <c r="A14" s="51" t="inlineStr">
+        <is>
+          <t>PANTALON 05 - cantidad: 2 - precio un.: S/. 57</t>
+        </is>
+      </c>
+      <c r="F14" s="51" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="54" t="n"/>
+      <c r="A15" s="52" t="inlineStr"/>
       <c r="E15" s="53" t="n"/>
       <c r="F15" s="17" t="n"/>
     </row>
@@ -1088,53 +1093,40 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="55" t="n"/>
-      <c r="B18" s="56" t="n"/>
-      <c r="C18" s="56" t="n"/>
-      <c r="D18" s="56" t="n"/>
-      <c r="E18" s="57" t="n"/>
-      <c r="F18" s="18" t="n"/>
+      <c r="A18" s="54" t="n"/>
+      <c r="E18" s="53" t="n"/>
+      <c r="F18" s="17" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="39" t="n"/>
-      <c r="B19" s="58" t="n"/>
-      <c r="C19" s="58" t="n"/>
-      <c r="D19" s="21" t="inlineStr">
+      <c r="A19" s="55" t="n"/>
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="56" t="n"/>
+      <c r="D19" s="56" t="n"/>
+      <c r="E19" s="57" t="n"/>
+      <c r="F19" s="18" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="39" t="n"/>
+      <c r="B20" s="58" t="n"/>
+      <c r="C20" s="58" t="n"/>
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>[42]</t>
         </is>
       </c>
-      <c r="E19" s="19" t="inlineStr">
+      <c r="E20" s="19" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="38" t="inlineStr">
+      <c r="F20" s="4" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A21" s="38" t="inlineStr">
         <is>
           <t>COMENTARIOS</t>
-        </is>
-      </c>
-      <c r="B20" s="58" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="43" t="n"/>
-      <c r="E20" s="19" t="inlineStr">
-        <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="30" t="inlineStr">
-        <is>
-          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B21" s="58" t="n"/>
@@ -1142,62 +1134,72 @@
       <c r="D21" s="43" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>24.84</v>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="30" t="inlineStr">
         <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
+          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B22" s="58" t="n"/>
       <c r="C22" s="59" t="n"/>
       <c r="D22" s="43" t="n"/>
-      <c r="E22" s="24" t="inlineStr">
+      <c r="E22" s="19" t="inlineStr">
+        <is>
+          <t>IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="30" t="inlineStr">
+        <is>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
+        </is>
+      </c>
+      <c r="B23" s="58" t="n"/>
+      <c r="C23" s="59" t="n"/>
+      <c r="D23" s="43" t="n"/>
+      <c r="E23" s="24" t="inlineStr">
         <is>
           <t>OTRO</t>
         </is>
       </c>
-      <c r="F22" s="25" t="inlineStr">
+      <c r="F23" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="27" t="n"/>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="43" t="n"/>
-      <c r="E23" s="22" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F23" s="23" t="n">
-        <v>162.84</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="27" t="n"/>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="5" t="n"/>
+      <c r="D24" s="43" t="n"/>
+      <c r="E24" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>297.36</v>
+      </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="27" t="n"/>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n"/>
-      <c r="D25" s="27" t="n"/>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="5" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="27" t="n"/>
@@ -1211,41 +1213,41 @@
       <c r="A27" s="27" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="27" t="n"/>
-      <c r="D27" s="28" t="n"/>
-      <c r="E27" s="28" t="n"/>
-      <c r="F27" s="29" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="27" t="n"/>
       <c r="B28" s="27" t="n"/>
       <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
+      <c r="D28" s="28" t="n"/>
+      <c r="E28" s="28" t="n"/>
+      <c r="F28" s="29" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="27" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
-      <c r="D29" s="43" t="n"/>
-      <c r="E29" s="43" t="n"/>
-      <c r="F29" s="5" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
-      <c r="D30" s="28" t="n"/>
-      <c r="E30" s="28" t="n"/>
-      <c r="F30" s="29" t="n"/>
+      <c r="D30" s="43" t="n"/>
+      <c r="E30" s="43" t="n"/>
+      <c r="F30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
-      <c r="F31" s="26" t="n"/>
+      <c r="D31" s="28" t="n"/>
+      <c r="E31" s="28" t="n"/>
+      <c r="F31" s="29" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="27" t="n"/>
@@ -1259,6 +1261,9 @@
       <c r="A33" s="27" t="n"/>
       <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="26" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="27" t="n"/>
@@ -1404,6 +1409,11 @@
       <c r="A62" s="27" t="n"/>
       <c r="B62" s="27" t="n"/>
       <c r="C62" s="27" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="27" t="n"/>
+      <c r="B63" s="27" t="n"/>
+      <c r="C63" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -946,7 +946,7 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-19</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000013</t>
+          <t>B100-00000017</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>10524578961</t>
+          <t>73747576</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>Empresa VALDOS I.R.L</t>
+          <t>Ruben Meladoblas</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1060,21 +1060,21 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 06 - cantidad: 2 - precio un.: S/. 69</t>
+          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
         </is>
       </c>
       <c r="F13" s="51" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 05 - cantidad: 2 - precio un.: S/. 57</t>
+          <t>PANTALON 05 - cantidad: 1 - precio un.: S/. 57</t>
         </is>
       </c>
       <c r="F14" s="51" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="F20" s="4" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="F22" s="4" t="n">
-        <v>45.36</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F24" s="23" t="n">
-        <v>297.36</v>
+        <v>148.68</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>B100-00000017</t>
+          <t>B100-00000018</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>73747576</t>
+          <t>10524578961</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>Ruben Meladoblas</t>
+          <t>Empresa VALDOS I.R.L</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -330,6 +331,54 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFC6C6C6"/>
@@ -338,54 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
     </border>
@@ -393,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -446,9 +447,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -468,6 +466,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -475,12 +503,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -498,48 +520,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +919,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -923,12 +934,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>TORMENTA</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="32" t="inlineStr">
         <is>
           <t>FACTURA</t>
         </is>
@@ -937,8 +948,8 @@
       <c r="F1" s="49" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="43" t="n"/>
-      <c r="D2" s="43" t="n"/>
+      <c r="A2" s="34" t="n"/>
+      <c r="D2" s="34" t="n"/>
       <c r="E2" s="11" t="inlineStr">
         <is>
           <t>Fecha:</t>
@@ -952,9 +963,9 @@
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="8" t="n"/>
-      <c r="B3" s="43" t="n"/>
-      <c r="C3" s="43" t="n"/>
-      <c r="D3" s="43" t="n"/>
+      <c r="B3" s="34" t="n"/>
+      <c r="C3" s="34" t="n"/>
+      <c r="D3" s="34" t="n"/>
       <c r="E3" s="13" t="inlineStr">
         <is>
           <t>Nº de Factura</t>
@@ -962,19 +973,19 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>B100-00000017</t>
+          <t>F100-00000014</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="43" t="inlineStr">
+      <c r="A4" s="34" t="inlineStr">
         <is>
           <t>Balta #152</t>
         </is>
       </c>
-      <c r="B4" s="43" t="n"/>
-      <c r="C4" s="43" t="n"/>
-      <c r="D4" s="43" t="n"/>
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="34" t="n"/>
+      <c r="D4" s="34" t="n"/>
       <c r="E4" s="15" t="inlineStr">
         <is>
           <t>RUC de cliente</t>
@@ -987,26 +998,26 @@
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="43" t="inlineStr">
+      <c r="A5" s="34" t="inlineStr">
         <is>
           <t>Lambayeque, Chiclayo, 14001</t>
         </is>
       </c>
-      <c r="B5" s="43" t="n"/>
-      <c r="C5" s="43" t="n"/>
-      <c r="D5" s="43" t="n"/>
+      <c r="B5" s="34" t="n"/>
+      <c r="C5" s="34" t="n"/>
+      <c r="D5" s="34" t="n"/>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="5" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="A6" s="34" t="inlineStr">
         <is>
           <t>Teléfono: 987 654 321</t>
         </is>
       </c>
-      <c r="B6" s="43" t="n"/>
-      <c r="C6" s="43" t="n"/>
-      <c r="D6" s="43" t="n"/>
+      <c r="B6" s="34" t="n"/>
+      <c r="C6" s="34" t="n"/>
+      <c r="D6" s="34" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="5" t="n"/>
     </row>
@@ -1034,7 +1045,7 @@
       <c r="F9" s="5" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="43" t="inlineStr"/>
+      <c r="A10" s="34" t="inlineStr"/>
       <c r="F10" s="5" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -1042,7 +1053,7 @@
       <c r="F11" s="5" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="46" t="inlineStr">
+      <c r="A12" s="35" t="inlineStr">
         <is>
           <t>DESCRIPCION</t>
         </is>
@@ -1051,7 +1062,7 @@
       <c r="C12" s="50" t="n"/>
       <c r="D12" s="50" t="n"/>
       <c r="E12" s="50" t="n"/>
-      <c r="F12" s="47" t="inlineStr">
+      <c r="F12" s="29" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -1060,11 +1071,11 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 06 - cantidad: 1 - precio un.: S/. 69</t>
-        </is>
-      </c>
-      <c r="F13" s="51" t="n">
-        <v>69</v>
+          <t>PANTALON 04 - cantidad: 2 - precio un.: S/. 47</t>
+        </is>
+      </c>
+      <c r="F13" s="52" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
@@ -1073,43 +1084,43 @@
           <t>PANTALON 05 - cantidad: 1 - precio un.: S/. 57</t>
         </is>
       </c>
-      <c r="F14" s="51" t="n">
+      <c r="F14" s="52" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="52" t="inlineStr"/>
-      <c r="E15" s="53" t="n"/>
+      <c r="A15" s="53" t="inlineStr"/>
+      <c r="E15" s="54" t="n"/>
       <c r="F15" s="17" t="n"/>
     </row>
     <row r="16" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A16" s="54" t="n"/>
-      <c r="E16" s="53" t="n"/>
+      <c r="A16" s="55" t="n"/>
+      <c r="E16" s="54" t="n"/>
       <c r="F16" s="17" t="n"/>
     </row>
     <row r="17" ht="18.75" customFormat="1" customHeight="1" s="6">
-      <c r="A17" s="54" t="n"/>
-      <c r="E17" s="53" t="n"/>
+      <c r="A17" s="55" t="n"/>
+      <c r="E17" s="54" t="n"/>
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="54" t="n"/>
-      <c r="E18" s="53" t="n"/>
+      <c r="A18" s="55" t="n"/>
+      <c r="E18" s="54" t="n"/>
       <c r="F18" s="17" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="55" t="n"/>
-      <c r="B19" s="56" t="n"/>
-      <c r="C19" s="56" t="n"/>
-      <c r="D19" s="56" t="n"/>
-      <c r="E19" s="57" t="n"/>
+      <c r="A19" s="56" t="n"/>
+      <c r="B19" s="57" t="n"/>
+      <c r="C19" s="57" t="n"/>
+      <c r="D19" s="57" t="n"/>
+      <c r="E19" s="58" t="n"/>
       <c r="F19" s="18" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="39" t="n"/>
-      <c r="B20" s="58" t="n"/>
-      <c r="C20" s="58" t="n"/>
-      <c r="D20" s="21" t="inlineStr">
+      <c r="A20" s="46" t="n"/>
+      <c r="B20" s="59" t="n"/>
+      <c r="C20" s="59" t="n"/>
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t>[42]</t>
         </is>
@@ -1119,315 +1130,315 @@
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n">
-        <v>126</v>
+      <c r="F20" s="60" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="38" t="inlineStr">
+      <c r="A21" s="45" t="inlineStr">
         <is>
           <t>COMENTARIOS</t>
         </is>
       </c>
-      <c r="B21" s="58" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="43" t="n"/>
+      <c r="B21" s="59" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="34" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
           <t>TASA DE IMPUESTO</t>
         </is>
       </c>
-      <c r="F21" s="20" t="n">
-        <v>18</v>
+      <c r="F21" s="62" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="30" t="inlineStr">
+      <c r="A22" s="39" t="inlineStr">
         <is>
           <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
-      <c r="B22" s="58" t="n"/>
-      <c r="C22" s="59" t="n"/>
-      <c r="D22" s="43" t="n"/>
+      <c r="B22" s="59" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="34" t="n"/>
       <c r="E22" s="19" t="inlineStr">
         <is>
           <t>IMPUESTO</t>
         </is>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>22.68</v>
+      <c r="F22" s="60" t="n">
+        <v>27.18</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="30" t="inlineStr">
+      <c r="A23" s="39" t="inlineStr">
         <is>
           <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
-      <c r="B23" s="58" t="n"/>
-      <c r="C23" s="59" t="n"/>
-      <c r="D23" s="43" t="n"/>
-      <c r="E23" s="24" t="inlineStr">
+      <c r="B23" s="59" t="n"/>
+      <c r="C23" s="61" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="23" t="inlineStr">
         <is>
           <t>OTRO</t>
         </is>
       </c>
-      <c r="F23" s="25" t="inlineStr">
+      <c r="F23" s="24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="27" t="n"/>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="27" t="n"/>
-      <c r="D24" s="43" t="n"/>
-      <c r="E24" s="22" t="inlineStr">
+      <c r="A24" s="26" t="n"/>
+      <c r="B24" s="26" t="n"/>
+      <c r="C24" s="26" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>148.68</v>
+      <c r="F24" s="63" t="n">
+        <v>178.18</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="27" t="n"/>
-      <c r="B25" s="27" t="n"/>
-      <c r="C25" s="27" t="n"/>
+      <c r="A25" s="26" t="n"/>
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="26" t="n"/>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="5" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="27" t="n"/>
-      <c r="B26" s="27" t="n"/>
-      <c r="C26" s="27" t="n"/>
-      <c r="D26" s="27" t="n"/>
-      <c r="E26" s="27" t="n"/>
-      <c r="F26" s="27" t="n"/>
+      <c r="A26" s="26" t="n"/>
+      <c r="B26" s="26" t="n"/>
+      <c r="C26" s="26" t="n"/>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="26" t="n"/>
+      <c r="F26" s="26" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="27" t="n"/>
-      <c r="B27" s="27" t="n"/>
-      <c r="C27" s="27" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
+      <c r="A27" s="26" t="n"/>
+      <c r="B27" s="26" t="n"/>
+      <c r="C27" s="26" t="n"/>
+      <c r="D27" s="26" t="n"/>
+      <c r="E27" s="26" t="n"/>
+      <c r="F27" s="26" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="27" t="n"/>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="28" t="n"/>
-      <c r="E28" s="28" t="n"/>
-      <c r="F28" s="29" t="n"/>
+      <c r="A28" s="26" t="n"/>
+      <c r="B28" s="26" t="n"/>
+      <c r="C28" s="26" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="28" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="27" t="n"/>
-      <c r="B29" s="27" t="n"/>
-      <c r="C29" s="27" t="n"/>
-      <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
+      <c r="A29" s="26" t="n"/>
+      <c r="B29" s="26" t="n"/>
+      <c r="C29" s="26" t="n"/>
+      <c r="D29" s="26" t="n"/>
+      <c r="E29" s="26" t="n"/>
+      <c r="F29" s="26" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="n"/>
-      <c r="B30" s="27" t="n"/>
-      <c r="C30" s="27" t="n"/>
-      <c r="D30" s="43" t="n"/>
-      <c r="E30" s="43" t="n"/>
+      <c r="A30" s="26" t="n"/>
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="26" t="n"/>
+      <c r="D30" s="34" t="n"/>
+      <c r="E30" s="34" t="n"/>
       <c r="F30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="n"/>
-      <c r="B31" s="27" t="n"/>
-      <c r="C31" s="27" t="n"/>
-      <c r="D31" s="28" t="n"/>
-      <c r="E31" s="28" t="n"/>
-      <c r="F31" s="29" t="n"/>
+      <c r="A31" s="26" t="n"/>
+      <c r="B31" s="26" t="n"/>
+      <c r="C31" s="26" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="28" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="n"/>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="27" t="n"/>
+      <c r="A32" s="26" t="n"/>
+      <c r="B32" s="26" t="n"/>
+      <c r="C32" s="26" t="n"/>
       <c r="D32" s="6" t="n"/>
       <c r="E32" s="6" t="n"/>
-      <c r="F32" s="26" t="n"/>
+      <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="n"/>
-      <c r="B33" s="27" t="n"/>
-      <c r="C33" s="27" t="n"/>
+      <c r="A33" s="26" t="n"/>
+      <c r="B33" s="26" t="n"/>
+      <c r="C33" s="26" t="n"/>
       <c r="D33" s="6" t="n"/>
       <c r="E33" s="6" t="n"/>
-      <c r="F33" s="26" t="n"/>
+      <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="27" t="n"/>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="27" t="n"/>
+      <c r="A34" s="26" t="n"/>
+      <c r="B34" s="26" t="n"/>
+      <c r="C34" s="26" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="27" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="26" t="n"/>
+      <c r="B35" s="26" t="n"/>
+      <c r="C35" s="26" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="26" t="n"/>
+      <c r="B36" s="26" t="n"/>
+      <c r="C36" s="26" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="26" t="n"/>
+      <c r="B37" s="26" t="n"/>
+      <c r="C37" s="26" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="26" t="n"/>
+      <c r="B38" s="26" t="n"/>
+      <c r="C38" s="26" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="A39" s="26" t="n"/>
+      <c r="B39" s="26" t="n"/>
+      <c r="C39" s="26" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="26" t="n"/>
+      <c r="B40" s="26" t="n"/>
+      <c r="C40" s="26" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="26" t="n"/>
+      <c r="B41" s="26" t="n"/>
+      <c r="C41" s="26" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="A42" s="26" t="n"/>
+      <c r="B42" s="26" t="n"/>
+      <c r="C42" s="26" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="A43" s="26" t="n"/>
+      <c r="B43" s="26" t="n"/>
+      <c r="C43" s="26" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
+      <c r="A44" s="26" t="n"/>
+      <c r="B44" s="26" t="n"/>
+      <c r="C44" s="26" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="27" t="n"/>
+      <c r="A45" s="26" t="n"/>
+      <c r="B45" s="26" t="n"/>
+      <c r="C45" s="26" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="27" t="n"/>
+      <c r="A46" s="26" t="n"/>
+      <c r="B46" s="26" t="n"/>
+      <c r="C46" s="26" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="n"/>
-      <c r="B47" s="27" t="n"/>
-      <c r="C47" s="27" t="n"/>
+      <c r="A47" s="26" t="n"/>
+      <c r="B47" s="26" t="n"/>
+      <c r="C47" s="26" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="27" t="n"/>
-      <c r="B48" s="27" t="n"/>
-      <c r="C48" s="27" t="n"/>
+      <c r="A48" s="26" t="n"/>
+      <c r="B48" s="26" t="n"/>
+      <c r="C48" s="26" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="n"/>
-      <c r="B49" s="27" t="n"/>
-      <c r="C49" s="27" t="n"/>
+      <c r="A49" s="26" t="n"/>
+      <c r="B49" s="26" t="n"/>
+      <c r="C49" s="26" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="n"/>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="27" t="n"/>
+      <c r="A50" s="26" t="n"/>
+      <c r="B50" s="26" t="n"/>
+      <c r="C50" s="26" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="27" t="n"/>
-      <c r="B51" s="27" t="n"/>
-      <c r="C51" s="27" t="n"/>
+      <c r="A51" s="26" t="n"/>
+      <c r="B51" s="26" t="n"/>
+      <c r="C51" s="26" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="27" t="n"/>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="27" t="n"/>
+      <c r="A52" s="26" t="n"/>
+      <c r="B52" s="26" t="n"/>
+      <c r="C52" s="26" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="27" t="n"/>
-      <c r="B53" s="27" t="n"/>
-      <c r="C53" s="27" t="n"/>
+      <c r="A53" s="26" t="n"/>
+      <c r="B53" s="26" t="n"/>
+      <c r="C53" s="26" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="27" t="n"/>
-      <c r="B54" s="27" t="n"/>
-      <c r="C54" s="27" t="n"/>
+      <c r="A54" s="26" t="n"/>
+      <c r="B54" s="26" t="n"/>
+      <c r="C54" s="26" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="27" t="n"/>
-      <c r="B55" s="27" t="n"/>
-      <c r="C55" s="27" t="n"/>
+      <c r="A55" s="26" t="n"/>
+      <c r="B55" s="26" t="n"/>
+      <c r="C55" s="26" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="27" t="n"/>
-      <c r="B56" s="27" t="n"/>
-      <c r="C56" s="27" t="n"/>
+      <c r="A56" s="26" t="n"/>
+      <c r="B56" s="26" t="n"/>
+      <c r="C56" s="26" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="27" t="n"/>
-      <c r="B57" s="27" t="n"/>
-      <c r="C57" s="27" t="n"/>
+      <c r="A57" s="26" t="n"/>
+      <c r="B57" s="26" t="n"/>
+      <c r="C57" s="26" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="27" t="n"/>
-      <c r="B58" s="27" t="n"/>
-      <c r="C58" s="27" t="n"/>
+      <c r="A58" s="26" t="n"/>
+      <c r="B58" s="26" t="n"/>
+      <c r="C58" s="26" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="27" t="n"/>
-      <c r="B59" s="27" t="n"/>
-      <c r="C59" s="27" t="n"/>
+      <c r="A59" s="26" t="n"/>
+      <c r="B59" s="26" t="n"/>
+      <c r="C59" s="26" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="27" t="n"/>
-      <c r="B60" s="27" t="n"/>
-      <c r="C60" s="27" t="n"/>
+      <c r="A60" s="26" t="n"/>
+      <c r="B60" s="26" t="n"/>
+      <c r="C60" s="26" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="27" t="n"/>
-      <c r="B61" s="27" t="n"/>
-      <c r="C61" s="27" t="n"/>
+      <c r="A61" s="26" t="n"/>
+      <c r="B61" s="26" t="n"/>
+      <c r="C61" s="26" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="27" t="n"/>
-      <c r="B62" s="27" t="n"/>
-      <c r="C62" s="27" t="n"/>
+      <c r="A62" s="26" t="n"/>
+      <c r="B62" s="26" t="n"/>
+      <c r="C62" s="26" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="27" t="n"/>
-      <c r="B63" s="27" t="n"/>
-      <c r="C63" s="27" t="n"/>
+      <c r="A63" s="26" t="n"/>
+      <c r="B63" s="26" t="n"/>
+      <c r="C63" s="26" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>

--- a/app/static/PDF/factura2_copia.xlsx
+++ b/app/static/PDF/factura2_copia.xlsx
@@ -916,7 +916,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>F100-00000014</t>
+          <t>B100-00000021</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>73747576</t>
+          <t>76070007</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>Ruben Meladoblas</t>
+          <t>LEYDI VANESSA IDROGO TANTAJULCA</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1071,25 +1071,20 @@
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>PANTALON 04 - cantidad: 2 - precio un.: S/. 47</t>
+          <t>Chaqueta de mezclilla ajustada - cantidad: 80 - precio un.: S/. 79.99</t>
         </is>
       </c>
       <c r="F13" s="52" t="n">
-        <v>94</v>
+        <v>6399.2</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="51" t="inlineStr">
-        <is>
-          <t>PANTALON 05 - cantidad: 1 - precio un.: S/. 57</t>
-        </is>
-      </c>
-      <c r="F14" s="52" t="n">
-        <v>57</v>
-      </c>
+      <c r="A14" s="53" t="inlineStr"/>
+      <c r="E14" s="54" t="n"/>
+      <c r="F14" s="17" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="53" t="inlineStr"/>
+      <c r="A15" s="55" t="n"/>
       <c r="E15" s="54" t="n"/>
       <c r="F15" s="17" t="n"/>
     </row>
@@ -1104,40 +1099,53 @@
       <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="55" t="n"/>
-      <c r="E18" s="54" t="n"/>
-      <c r="F18" s="17" t="n"/>
+      <c r="A18" s="56" t="n"/>
+      <c r="B18" s="57" t="n"/>
+      <c r="C18" s="57" t="n"/>
+      <c r="D18" s="57" t="n"/>
+      <c r="E18" s="58" t="n"/>
+      <c r="F18" s="18" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="56" t="n"/>
-      <c r="B19" s="57" t="n"/>
-      <c r="C19" s="57" t="n"/>
-      <c r="D19" s="57" t="n"/>
-      <c r="E19" s="58" t="n"/>
-      <c r="F19" s="18" t="n"/>
+      <c r="A19" s="46" t="n"/>
+      <c r="B19" s="59" t="n"/>
+      <c r="C19" s="59" t="n"/>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="E19" s="19" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="F19" s="60" t="n">
+        <v>6399.200000000001</v>
+      </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="46" t="n"/>
+      <c r="A20" s="45" t="inlineStr">
+        <is>
+          <t>COMENTARIOS</t>
+        </is>
+      </c>
       <c r="B20" s="59" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="20" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="34" t="n"/>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="F20" s="60" t="n">
-        <v>151</v>
+          <t>TASA DE IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="45" t="inlineStr">
-        <is>
-          <t>COMENTARIOS</t>
+      <c r="A21" s="39" t="inlineStr">
+        <is>
+          <t>1. Total a pagar en 30 días</t>
         </is>
       </c>
       <c r="B21" s="59" t="n"/>
@@ -1145,72 +1153,62 @@
       <c r="D21" s="34" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>TASA DE IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F21" s="62" t="n">
-        <v>0.18</v>
+          <t>IMPUESTO</t>
+        </is>
+      </c>
+      <c r="F21" s="60" t="n">
+        <v>1151.86</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="39" t="inlineStr">
         <is>
-          <t>1. Total a pagar en 30 días</t>
+          <t>2. Incluya por favor el número de factura en su cheque</t>
         </is>
       </c>
       <c r="B22" s="59" t="n"/>
       <c r="C22" s="61" t="n"/>
       <c r="D22" s="34" t="n"/>
-      <c r="E22" s="19" t="inlineStr">
-        <is>
-          <t>IMPUESTO</t>
-        </is>
-      </c>
-      <c r="F22" s="60" t="n">
-        <v>27.18</v>
+      <c r="E22" s="23" t="inlineStr">
+        <is>
+          <t>OTRO</t>
+        </is>
+      </c>
+      <c r="F22" s="24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="39" t="inlineStr">
-        <is>
-          <t>2. Incluya por favor el número de factura en su cheque</t>
-        </is>
-      </c>
-      <c r="B23" s="59" t="n"/>
-      <c r="C23" s="61" t="n"/>
+      <c r="A23" s="26" t="n"/>
+      <c r="B23" s="26" t="n"/>
+      <c r="C23" s="26" t="n"/>
       <c r="D23" s="34" t="n"/>
-      <c r="E23" s="23" t="inlineStr">
-        <is>
-          <t>OTRO</t>
-        </is>
-      </c>
-      <c r="F23" s="24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F23" s="63" t="n">
+        <v>7551.06</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="26" t="n"/>
       <c r="B24" s="26" t="n"/>
       <c r="C24" s="26" t="n"/>
-      <c r="D24" s="34" t="n"/>
-      <c r="E24" s="21" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F24" s="63" t="n">
-        <v>178.18</v>
-      </c>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="26" t="n"/>
       <c r="B25" s="26" t="n"/>
       <c r="C25" s="26" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="5" t="n"/>
+      <c r="D25" s="26" t="n"/>
+      <c r="E25" s="26" t="n"/>
+      <c r="F25" s="26" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="26" t="n"/>
@@ -1224,41 +1222,41 @@
       <c r="A27" s="26" t="n"/>
       <c r="B27" s="26" t="n"/>
       <c r="C27" s="26" t="n"/>
-      <c r="D27" s="26" t="n"/>
-      <c r="E27" s="26" t="n"/>
-      <c r="F27" s="26" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="28" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="26" t="n"/>
       <c r="B28" s="26" t="n"/>
       <c r="C28" s="26" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
+      <c r="D28" s="26" t="n"/>
+      <c r="E28" s="26" t="n"/>
+      <c r="F28" s="26" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="26" t="n"/>
       <c r="B29" s="26" t="n"/>
       <c r="C29" s="26" t="n"/>
-      <c r="D29" s="26" t="n"/>
-      <c r="E29" s="26" t="n"/>
-      <c r="F29" s="26" t="n"/>
+      <c r="D29" s="34" t="n"/>
+      <c r="E29" s="34" t="n"/>
+      <c r="F29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="26" t="n"/>
       <c r="B30" s="26" t="n"/>
       <c r="C30" s="26" t="n"/>
-      <c r="D30" s="34" t="n"/>
-      <c r="E30" s="34" t="n"/>
-      <c r="F30" s="5" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="28" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="26" t="n"/>
       <c r="B31" s="26" t="n"/>
       <c r="C31" s="26" t="n"/>
-      <c r="D31" s="27" t="n"/>
-      <c r="E31" s="27" t="n"/>
-      <c r="F31" s="28" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="26" t="n"/>
@@ -1272,9 +1270,6 @@
       <c r="A33" s="26" t="n"/>
       <c r="B33" s="26" t="n"/>
       <c r="C33" s="26" t="n"/>
-      <c r="D33" s="6" t="n"/>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="26" t="n"/>
@@ -1420,11 +1415,6 @@
       <c r="A62" s="26" t="n"/>
       <c r="B62" s="26" t="n"/>
       <c r="C62" s="26" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="26" t="n"/>
-      <c r="B63" s="26" t="n"/>
-      <c r="C63" s="26" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
